--- a/Data/TaskClassificationV2-2.xlsx
+++ b/Data/TaskClassificationV2-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\radika\AI_Engineer\Project\Dental_Clinic\Code\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798C288A-A20B-4C9A-963A-7FEE77AADB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93EB3D2-B3F2-4C75-9F25-89CD1D06E8B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Constraints" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="116">
   <si>
     <t>Constraints</t>
   </si>
@@ -314,13 +314,67 @@
     <t>GP2</t>
   </si>
   <si>
-    <t xml:space="preserve">GP </t>
-  </si>
-  <si>
     <t>Daisy</t>
   </si>
   <si>
     <t>PRS2</t>
+  </si>
+  <si>
+    <t>Raymond</t>
+  </si>
+  <si>
+    <t>GP3</t>
+  </si>
+  <si>
+    <t>Maryon</t>
+  </si>
+  <si>
+    <t>GP4</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>ORT2</t>
+  </si>
+  <si>
+    <t>Jarl</t>
+  </si>
+  <si>
+    <t>GP5</t>
+  </si>
+  <si>
+    <t>Zayn</t>
+  </si>
+  <si>
+    <t>OS2</t>
+  </si>
+  <si>
+    <t>OS3</t>
+  </si>
+  <si>
+    <t>GP7</t>
+  </si>
+  <si>
+    <t>Siv</t>
+  </si>
+  <si>
+    <t>GP6</t>
+  </si>
+  <si>
+    <t>Roy</t>
+  </si>
+  <si>
+    <t>END2</t>
+  </si>
+  <si>
+    <t>Melvin</t>
+  </si>
+  <si>
+    <t>ANT2</t>
+  </si>
+  <si>
+    <t>Metrion</t>
   </si>
 </sst>
 </file>
@@ -702,17 +756,17 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.68359375" customWidth="1"/>
-    <col min="2" max="2" width="11.68359375" customWidth="1"/>
-    <col min="3" max="3" width="47.41796875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -746,7 +800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -763,7 +817,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -780,7 +834,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -797,7 +851,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -814,7 +868,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -831,7 +885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -848,7 +902,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -865,7 +919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -882,7 +936,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -899,7 +953,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -916,7 +970,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -933,7 +987,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -950,7 +1004,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -974,22 +1028,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3125" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" customWidth="1"/>
-    <col min="3" max="3" width="13.7890625" customWidth="1"/>
-    <col min="4" max="4" width="12.68359375" customWidth="1"/>
-    <col min="5" max="5" width="10.41796875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1003,7 +1057,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1017,7 +1071,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1031,199 +1085,339 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
         <v>68</v>
       </c>
-      <c r="D4">
+      <c r="D6">
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B8" t="s">
         <v>83</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C8" t="s">
         <v>69</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18">
+        <v>49000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21">
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>95</v>
       </c>
-      <c r="D6">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8">
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12">
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-      <c r="D13">
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
         <v>78</v>
       </c>
-      <c r="D15">
-        <v>65000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16">
+      <c r="D26">
         <v>68000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>30</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B27" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C27" t="s">
         <v>79</v>
       </c>
-      <c r="D17">
+      <c r="D27">
         <v>72000</v>
       </c>
     </row>
@@ -1241,14 +1435,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.41796875" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="5" max="5" width="23.1015625" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>49</v>
       </c>
@@ -1265,7 +1459,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1282,7 +1476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -1299,7 +1493,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>52</v>
       </c>
